--- a/TestProject/TestProject/wwwroot/upload/user_score.xlsx
+++ b/TestProject/TestProject/wwwroot/upload/user_score.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정동구\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/GraduationAssessment/GraduationAssesment/TestProject/TestProject/wwwroot/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24CA52C7-59F5-4627-BABC-9CA3A6BB9434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18741FF5-6B42-B84B-B841-2E5A9876A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00E3A524-EC4E-456D-BA7B-A22EDF3283C9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22140" windowHeight="13320" xr2:uid="{00E3A524-EC4E-456D-BA7B-A22EDF3283C9}"/>
   </bookViews>
   <sheets>
     <sheet name="학생성적정보" sheetId="1" r:id="rId1"/>
@@ -629,9 +629,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,7 +785,7 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -803,7 +803,7 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,7 +821,7 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1149,37 +1149,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB850E5-4B36-4BA0-B5F9-6B95E4DE2680}">
   <dimension ref="B1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="9.92578125" customWidth="1"/>
-    <col min="8" max="8" width="2.640625" customWidth="1"/>
-    <col min="9" max="9" width="25.92578125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="4.5" customWidth="1"/>
-    <col min="12" max="12" width="4.0703125" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
-    <col min="14" max="14" width="8.78515625" customWidth="1"/>
+    <col min="12" max="12" width="4" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" customWidth="1"/>
     <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" customWidth="1"/>
-    <col min="17" max="17" width="7.85546875" customWidth="1"/>
-    <col min="18" max="18" width="11.640625" customWidth="1"/>
-    <col min="19" max="19" width="9.92578125" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" customWidth="1"/>
+    <col min="17" max="17" width="7.83203125" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
     <col min="20" max="20" width="15.5" customWidth="1"/>
     <col min="21" max="21" width="22" customWidth="1"/>
-    <col min="22" max="22" width="25.92578125" customWidth="1"/>
-    <col min="23" max="23" width="8.640625" customWidth="1"/>
+    <col min="22" max="22" width="26" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="23.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:23" ht="28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:23">
       <c r="B2" s="3">
         <v>1</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:23">
       <c r="B3" s="9">
         <v>2</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="23.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:23" ht="28">
       <c r="B4" s="15">
         <v>3</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:23" ht="28">
       <c r="B5" s="9">
         <v>4</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:23">
       <c r="B6" s="15">
         <v>5</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:23">
       <c r="B7" s="9">
         <v>6</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:23" ht="23.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:23" ht="28">
       <c r="B8" s="15">
         <v>7</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:23">
       <c r="B9" s="9">
         <v>8</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:23" ht="23.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:23" ht="28">
       <c r="B10" s="15">
         <v>9</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="23.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:23" ht="28">
       <c r="B11" s="9">
         <v>10</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:23">
       <c r="B12" s="15">
         <v>11</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:23" ht="23.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:23" ht="28">
       <c r="B13" s="9">
         <v>12</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:23" ht="28">
       <c r="B14" s="15">
         <v>13</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:23">
       <c r="B15" s="9">
         <v>14</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:23" ht="28">
       <c r="B16" s="15">
         <v>15</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:23">
       <c r="B17" s="9">
         <v>16</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:23">
       <c r="B18" s="15">
         <v>17</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:23">
       <c r="B19" s="9">
         <v>18</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:23">
       <c r="B20" s="15">
         <v>19</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:23" ht="28">
       <c r="B21" s="9">
         <v>20</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:23">
       <c r="B22" s="15">
         <v>21</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:23">
       <c r="B23" s="9">
         <v>22</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:23">
       <c r="B24" s="15">
         <v>23</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:23">
       <c r="B25" s="9">
         <v>24</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="23.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:23" ht="28">
       <c r="B26" s="15">
         <v>25</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:23">
       <c r="B27" s="9">
         <v>26</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="23.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:23" ht="28">
       <c r="B28" s="15">
         <v>27</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:23">
       <c r="B29" s="9">
         <v>28</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:23">
       <c r="B30" s="15">
         <v>29</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:23" ht="23.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:23" ht="28">
       <c r="B31" s="9">
         <v>30</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:23">
       <c r="B32" s="15">
         <v>31</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:23">
       <c r="B33" s="9">
         <v>32</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:23">
       <c r="B34" s="15">
         <v>33</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:23">
       <c r="B35" s="9">
         <v>34</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:23" ht="23.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:23" ht="28">
       <c r="B36" s="15">
         <v>35</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:23" ht="23.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:23" ht="28">
       <c r="B37" s="9">
         <v>36</v>
       </c>
